--- a/biology/Zoologie/Chalcorana_raniceps/Chalcorana_raniceps.xlsx
+++ b/biology/Zoologie/Chalcorana_raniceps/Chalcorana_raniceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcorana raniceps est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcorana raniceps est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de Bornéo. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de Bornéo. Elle se rencontre :
 au Brunei ;
 en Malaisie au Sarawak;
 en Indonésie au Kalimantan.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 41 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 41 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrica und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1, p. 566-581 (texte intégral).</t>
         </is>
